--- a/r4-core-72-qa-errors-and-warnings/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-72-qa-errors-and-warnings/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T08:44:34+00:00</t>
+    <t>2024-02-13T12:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -379,7 +379,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/ValueSet/at-elga-vs-religion</t>
+    <t>https://termgit.elga.gv.at/ValueSet/elga-religiousaffiliation</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -953,7 +953,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.53515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.5546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
